--- a/Residual Xs.xlsx
+++ b/Residual Xs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DerekS\My Projects\Python\Meeder1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.172.247\meeder\users\DerekS\My Projects\Python\Meeder1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDAEF3F-364F-461F-9570-4815D51D3772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA993FAC-9FFE-4099-9306-FB0AD9E2C1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D3B66E68-1862-4DC0-82AD-928A754685F4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D3B66E68-1862-4DC0-82AD-928A754685F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -106,6 +106,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EABC180-3AB1-45D7-A536-87AEDDB9043F}">
-  <dimension ref="A1:C782"/>
+  <dimension ref="A1:C790"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A765" workbookViewId="0">
+      <selection activeCell="A782" sqref="A782:A790"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6708,6 +6709,70 @@
         <v>0.2149731915549449</v>
       </c>
     </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A783" s="2">
+        <v>45631</v>
+      </c>
+      <c r="B783" s="4">
+        <v>0.1960935832945481</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A784" s="2">
+        <v>45632</v>
+      </c>
+      <c r="B784" s="4">
+        <v>0.16360458803910299</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A785" s="2">
+        <v>45635</v>
+      </c>
+      <c r="B785" s="4">
+        <v>0.16747424837845859</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A786" s="2">
+        <v>45636</v>
+      </c>
+      <c r="B786" s="4">
+        <v>0.14993866736217501</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A787" s="2">
+        <v>45637</v>
+      </c>
+      <c r="B787" s="4">
+        <v>0.24707032193533779</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A788" s="2">
+        <v>45638</v>
+      </c>
+      <c r="B788" s="4">
+        <v>0.27188500193569531</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A789" s="2">
+        <v>45639</v>
+      </c>
+      <c r="B789" s="4">
+        <v>0.3362394602414156</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A790" s="2">
+        <v>45642</v>
+      </c>
+      <c r="B790" s="4">
+        <v>0.3362394602414156</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
